--- a/mcmaster_excel/Metric_Steel_Pan_Head_Screws_with_Split_Lock_Washer.xlsx
+++ b/mcmaster_excel/Metric_Steel_Pan_Head_Screws_with_Split_Lock_Washer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,221 +434,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Thick.,mm</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize, mm</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>DIN 7985, ISO 7045</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>90460A101</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>$5.41</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Washer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Lg.,mm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>HeadDia., mm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>HeadHt., mm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>OD</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>Thick.,mm</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>DriveSize, mm</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>DIN 7985, ISO 7045</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>90460A102</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -698,12 +610,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>90460A103</t>
+          <t>90460A101</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>$5.41</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -720,37 +632,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -770,17 +682,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>90460A104</t>
+          <t>90460A102</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -792,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -802,27 +714,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -842,17 +754,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>90460A105</t>
+          <t>90460A103</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -864,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -914,12 +826,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>90460A106</t>
+          <t>90460A104</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -936,7 +848,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -986,12 +898,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>90460A107</t>
+          <t>90460A105</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1008,32 +920,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1058,17 +970,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>90460A108</t>
+          <t>90460A106</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1080,7 +992,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1090,22 +1002,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1130,17 +1042,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>90460A109</t>
+          <t>90460A107</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1152,7 +1064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1202,12 +1114,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>90460A111</t>
+          <t>90460A108</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1224,70 +1136,214 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>90460A109</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DIN 7985, ISO 7045</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>90460A111</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Fully Threaded</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>3.95</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1.2</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>60,000</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>DIN 7985, ISO 7045</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>90460A112</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>8.41</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
